--- a/te_algorithms/data/summary_table_drought.xlsx
+++ b/te_algorithms/data/summary_table_drought.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LandDegradation\trends.earth\LDMP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LandDegradation\trends.earth-prais-prep\docker\summary_worker\trends.earth-algorithms\te_algorithms\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA2A74B-0640-4F9C-9F7F-4BBD4639A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C84FB-E731-4EF2-88B3-9BA96DD0FD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1920" windowWidth="28065" windowHeight="17250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area under drought by year" sheetId="11" r:id="rId1"/>
@@ -474,6 +474,24 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -487,25 +505,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -835,9 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4BB6A9-A36E-4038-9A88-A1EAFF46FB3F}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -870,53 +868,53 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="41" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="41" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="41" t="s">
+      <c r="K5" s="40"/>
+      <c r="L5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="38" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="39"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
@@ -963,7 +961,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="17"/>
       <c r="C7" s="21" t="str">
         <f>IF(ISBLANK($B7),"",SUM(D7,F7,H7,J7,L7,N7))</f>
@@ -1001,7 +999,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="17"/>
       <c r="C8" s="21" t="str">
         <f t="shared" ref="C8:C29" si="0">IF(ISBLANK($B8),"",SUM(D8,F8,H8,J8,L8,N8))</f>
@@ -1039,7 +1037,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="17"/>
       <c r="C9" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1077,7 +1075,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="17"/>
       <c r="C10" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1115,7 +1113,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="17"/>
       <c r="C11" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1153,7 +1151,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="17"/>
       <c r="C12" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1191,7 +1189,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="17"/>
       <c r="C13" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1229,7 +1227,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="17"/>
       <c r="C14" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1267,7 +1265,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="17"/>
       <c r="C15" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1305,7 +1303,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="17"/>
       <c r="C16" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1343,7 +1341,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="17"/>
       <c r="C17" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1381,7 +1379,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="17"/>
       <c r="C18" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1419,7 +1417,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="17"/>
       <c r="C19" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1457,7 +1455,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="17"/>
       <c r="C20" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1495,7 +1493,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1533,7 +1531,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="17"/>
       <c r="C22" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1571,7 +1569,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="17"/>
       <c r="C23" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1609,7 +1607,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="17"/>
       <c r="C24" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1647,7 +1645,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="17"/>
       <c r="C25" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1685,7 +1683,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="17"/>
       <c r="C26" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1723,7 +1721,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="17"/>
       <c r="C27" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1761,7 +1759,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="17"/>
       <c r="C28" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1799,7 +1797,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="17"/>
       <c r="C29" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1847,53 +1845,53 @@
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:A29"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A7:A29"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1904,9 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
-    </sheetView>
+    <sheetView zoomScale="96" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1939,23 +1935,23 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1964,30 +1960,30 @@
       <c r="A5" s="5"/>
       <c r="B5" s="15"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="41" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="41" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="41" t="s">
+      <c r="K5" s="40"/>
+      <c r="L5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="38" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="39"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
@@ -2034,7 +2030,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="17"/>
       <c r="C7" s="21" t="str">
         <f>IF(ISBLANK($B7),"",SUM(D7,F7,H7,J7,L7,N7))</f>
@@ -2072,7 +2068,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="17"/>
       <c r="C8" s="21" t="str">
         <f t="shared" ref="C8:C29" si="0">IF(ISBLANK($B8),"",SUM(D8,F8,H8,J8,L8,N8))</f>
@@ -2110,7 +2106,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="17"/>
       <c r="C9" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2148,7 +2144,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="17"/>
       <c r="C10" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2186,7 +2182,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="17"/>
       <c r="C11" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2224,7 +2220,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="17"/>
       <c r="C12" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2262,7 +2258,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="17"/>
       <c r="C13" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2300,7 +2296,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="17"/>
       <c r="C14" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2338,7 +2334,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="17"/>
       <c r="C15" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2376,7 +2372,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="17"/>
       <c r="C16" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2414,7 +2410,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="17"/>
       <c r="C17" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2452,7 +2448,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="17"/>
       <c r="C18" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2490,7 +2486,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="17"/>
       <c r="C19" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2528,7 +2524,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="17"/>
       <c r="C20" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2566,7 +2562,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2604,7 +2600,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="17"/>
       <c r="C22" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2642,7 +2638,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="17"/>
       <c r="C23" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2680,7 +2676,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="17"/>
       <c r="C24" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2718,7 +2714,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="17"/>
       <c r="C25" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2756,7 +2752,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="17"/>
       <c r="C26" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2794,7 +2790,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="17"/>
       <c r="C27" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2832,7 +2828,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="17"/>
       <c r="C28" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2870,7 +2866,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="17"/>
       <c r="C29" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2925,40 +2921,40 @@
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
     </row>
@@ -2984,9 +2980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12253E63-19A0-4D98-92C0-18466B6DE8AE}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3007,296 +3001,296 @@
       <c r="A2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="46" t="str">
+      <c r="C6" s="37" t="str">
         <f>IF(ISBLANK($B6),"",SUM(D6,E6,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="46" t="str">
+      <c r="C7" s="37" t="str">
         <f>IF(ISBLANK($B7),"",SUM(D7,E7,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="46" t="str">
+      <c r="C8" s="37" t="str">
         <f>IF(ISBLANK($B8),"",SUM(D8,E8,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="46" t="str">
+      <c r="C9" s="37" t="str">
         <f>IF(ISBLANK($B9),"",SUM(D9,E9,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="46" t="str">
+      <c r="C10" s="37" t="str">
         <f>IF(ISBLANK($B10),"",SUM(D10,E10,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="46" t="str">
+      <c r="C11" s="37" t="str">
         <f>IF(ISBLANK($B11),"",SUM(D11,E11,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="46" t="str">
+      <c r="C12" s="37" t="str">
         <f>IF(ISBLANK($B12),"",SUM(D12,E12,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="46" t="str">
+      <c r="C13" s="37" t="str">
         <f>IF(ISBLANK($B13),"",SUM(D13,E13,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="46" t="str">
+      <c r="C14" s="37" t="str">
         <f>IF(ISBLANK($B14),"",SUM(D14,E14,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="46" t="str">
+      <c r="C15" s="37" t="str">
         <f>IF(ISBLANK($B15),"",SUM(D15,E15,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="46" t="str">
+      <c r="C16" s="37" t="str">
         <f>IF(ISBLANK($B16),"",SUM(D16,E16,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="46" t="str">
+      <c r="C17" s="37" t="str">
         <f>IF(ISBLANK($B17),"",SUM(D17,E17,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="46" t="str">
+      <c r="C18" s="37" t="str">
         <f>IF(ISBLANK($B18),"",SUM(D18,E18,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="46" t="str">
+      <c r="C19" s="37" t="str">
         <f>IF(ISBLANK($B19),"",SUM(D19,E19,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="46" t="str">
+      <c r="C20" s="37" t="str">
         <f>IF(ISBLANK($B20),"",SUM(D20,E20,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="46" t="str">
+      <c r="C21" s="37" t="str">
         <f>IF(ISBLANK($B21),"",SUM(D21,E21,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="46" t="str">
+      <c r="C22" s="37" t="str">
         <f>IF(ISBLANK($B22),"",SUM(D22,E22,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="46" t="str">
+      <c r="C23" s="37" t="str">
         <f>IF(ISBLANK($B23),"",SUM(D23,E23,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="46" t="str">
+      <c r="C24" s="37" t="str">
         <f>IF(ISBLANK($B24),"",SUM(D24,E24,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="46" t="str">
+      <c r="C25" s="37" t="str">
         <f>IF(ISBLANK($B25),"",SUM(D25,E25,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="46" t="str">
+      <c r="C26" s="37" t="str">
         <f>IF(ISBLANK($B26),"",SUM(D26,E26,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="46" t="str">
+      <c r="C27" s="37" t="str">
         <f>IF(ISBLANK($B27),"",SUM(D27,E27,#REF!,#REF!,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
@@ -3310,26 +3304,26 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/te_algorithms/data/summary_table_drought.xlsx
+++ b/te_algorithms/data/summary_table_drought.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LandDegradation\trends.earth-prais-prep\docker\summary_worker\trends.earth-algorithms\te_algorithms\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C84FB-E731-4EF2-88B3-9BA96DD0FD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D73D5EF-B020-43B2-A64B-4A6A758D6C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="26655" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area under drought by year" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>The boundaries, names, and designations used in this report do not imply official endorsement or acceptance by Conservation International Foundation, or its partner organizations and contributors.  This report is available under the terms of Creative Commons Attribution 4.0 International License (CC BY 4.0).</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>Drought Vulnerability Index (DVI) by year</t>
+  </si>
+  <si>
+    <t>Population under drought by year (female)</t>
+  </si>
+  <si>
+    <t>Population under drought by year (male)</t>
+  </si>
+  <si>
+    <t>Total population (male)</t>
+  </si>
+  <si>
+    <t>Total population (female)</t>
+  </si>
+  <si>
+    <t>Population (female)</t>
+  </si>
+  <si>
+    <t>Population (male)</t>
   </si>
 </sst>
 </file>
@@ -185,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +225,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -483,15 +513,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -505,7 +527,40 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -868,53 +923,53 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="39" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="39" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="39" t="s">
+      <c r="I5" s="46"/>
+      <c r="J5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="39" t="s">
+      <c r="K5" s="46"/>
+      <c r="L5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="44" t="s">
+      <c r="M5" s="46"/>
+      <c r="N5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="45"/>
+      <c r="O5" s="43"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
@@ -961,7 +1016,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="17"/>
       <c r="C7" s="21" t="str">
         <f>IF(ISBLANK($B7),"",SUM(D7,F7,H7,J7,L7,N7))</f>
@@ -999,7 +1054,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="17"/>
       <c r="C8" s="21" t="str">
         <f t="shared" ref="C8:C29" si="0">IF(ISBLANK($B8),"",SUM(D8,F8,H8,J8,L8,N8))</f>
@@ -1037,7 +1092,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="17"/>
       <c r="C9" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1075,7 +1130,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="17"/>
       <c r="C10" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1113,7 +1168,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="17"/>
       <c r="C11" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1151,7 +1206,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="17"/>
       <c r="C12" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1189,7 +1244,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="17"/>
       <c r="C13" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1227,7 +1282,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="17"/>
       <c r="C14" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1265,7 +1320,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="17"/>
       <c r="C15" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1303,7 +1358,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="17"/>
       <c r="C16" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1341,7 +1396,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="17"/>
       <c r="C17" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1379,7 +1434,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="17"/>
       <c r="C18" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1417,7 +1472,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="17"/>
       <c r="C19" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1455,7 +1510,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="17"/>
       <c r="C20" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1493,7 +1548,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1531,7 +1586,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="17"/>
       <c r="C22" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1569,7 +1624,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="17"/>
       <c r="C23" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1607,7 +1662,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="17"/>
       <c r="C24" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1645,7 +1700,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="17"/>
       <c r="C25" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1683,7 +1738,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="17"/>
       <c r="C26" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1721,7 +1776,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="17"/>
       <c r="C27" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1759,7 +1814,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="17"/>
       <c r="C28" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1797,7 +1852,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="17"/>
       <c r="C29" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1845,38 +1900,38 @@
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
     </row>
@@ -1900,7 +1955,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1935,23 +1990,23 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1960,30 +2015,30 @@
       <c r="A5" s="5"/>
       <c r="B5" s="15"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="39" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="39" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="39" t="s">
+      <c r="I5" s="46"/>
+      <c r="J5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="39" t="s">
+      <c r="K5" s="46"/>
+      <c r="L5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="44" t="s">
+      <c r="M5" s="46"/>
+      <c r="N5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="45"/>
+      <c r="O5" s="43"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
@@ -2030,7 +2085,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="17"/>
       <c r="C7" s="21" t="str">
         <f>IF(ISBLANK($B7),"",SUM(D7,F7,H7,J7,L7,N7))</f>
@@ -2068,7 +2123,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="17"/>
       <c r="C8" s="21" t="str">
         <f t="shared" ref="C8:C29" si="0">IF(ISBLANK($B8),"",SUM(D8,F8,H8,J8,L8,N8))</f>
@@ -2106,7 +2161,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="17"/>
       <c r="C9" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2144,7 +2199,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="17"/>
       <c r="C10" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2182,7 +2237,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="17"/>
       <c r="C11" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2220,7 +2275,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="17"/>
       <c r="C12" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2258,7 +2313,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="17"/>
       <c r="C13" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2296,7 +2351,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="17"/>
       <c r="C14" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2334,7 +2389,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="17"/>
       <c r="C15" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2372,7 +2427,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="17"/>
       <c r="C16" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2410,7 +2465,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="17"/>
       <c r="C17" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2448,7 +2503,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="17"/>
       <c r="C18" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2486,7 +2541,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="17"/>
       <c r="C19" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2524,7 +2579,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="17"/>
       <c r="C20" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2562,7 +2617,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2600,7 +2655,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="17"/>
       <c r="C22" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2638,7 +2693,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="17"/>
       <c r="C23" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2676,7 +2731,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="17"/>
       <c r="C24" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2714,7 +2769,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="17"/>
       <c r="C25" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2752,7 +2807,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="17"/>
       <c r="C26" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2790,7 +2845,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="17"/>
       <c r="C27" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2828,7 +2883,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="17"/>
       <c r="C28" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2866,7 +2921,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="17"/>
       <c r="C29" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2903,64 +2958,2069 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="10"/>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+    <row r="30" spans="1:15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:15" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+    </row>
+    <row r="32" spans="1:15" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="46"/>
+      <c r="H33" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="46"/>
+      <c r="J33" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="46"/>
+      <c r="L33" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="46"/>
+      <c r="N33" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="43"/>
+    </row>
+    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="21" t="str">
+        <f>IF(ISBLANK($B35),"",SUM(D35,F35,H35,J35,L35,N35))</f>
+        <v/>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="12" t="str">
+        <f>IF(ISBLANK($B35),"",D35/$C35)</f>
+        <v/>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="12" t="str">
+        <f>IF(ISBLANK($B35),"",F35/$C35)</f>
+        <v/>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="12" t="str">
+        <f>IF(ISBLANK($B35),"",H35/$C35)</f>
+        <v/>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="12" t="str">
+        <f>IF(ISBLANK($B35),"",J35/$C35)</f>
+        <v/>
+      </c>
+      <c r="L35" s="24"/>
+      <c r="M35" s="12" t="str">
+        <f>IF(ISBLANK($B35),"",L35/$C35)</f>
+        <v/>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="32" t="str">
+        <f>IF(ISBLANK($B35),"",N35/$C35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="21" t="str">
+        <f t="shared" ref="C36:C57" si="7">IF(ISBLANK($B36),"",SUM(D36,F36,H36,J36,L36,N36))</f>
+        <v/>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="12" t="str">
+        <f t="shared" ref="E36:E57" si="8">IF(ISBLANK($B36),"",D36/$C36)</f>
+        <v/>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="12" t="str">
+        <f t="shared" ref="G36:G57" si="9">IF(ISBLANK($B36),"",F36/$C36)</f>
+        <v/>
+      </c>
+      <c r="H36" s="27"/>
+      <c r="I36" s="12" t="str">
+        <f t="shared" ref="I36:I57" si="10">IF(ISBLANK($B36),"",H36/$C36)</f>
+        <v/>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="12" t="str">
+        <f t="shared" ref="K36:K57" si="11">IF(ISBLANK($B36),"",J36/$C36)</f>
+        <v/>
+      </c>
+      <c r="L36" s="24"/>
+      <c r="M36" s="12" t="str">
+        <f t="shared" ref="M36:M57" si="12">IF(ISBLANK($B36),"",L36/$C36)</f>
+        <v/>
+      </c>
+      <c r="N36" s="31"/>
+      <c r="O36" s="32" t="str">
+        <f t="shared" ref="O36:O57" si="13">IF(ISBLANK($B36),"",N36/$C36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L37" s="24"/>
+      <c r="M37" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N37" s="31"/>
+      <c r="O37" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H38" s="27"/>
+      <c r="I38" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L38" s="24"/>
+      <c r="M38" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N38" s="31"/>
+      <c r="O38" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H39" s="27"/>
+      <c r="I39" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L39" s="24"/>
+      <c r="M39" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N39" s="31"/>
+      <c r="O39" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L40" s="24"/>
+      <c r="M40" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N40" s="31"/>
+      <c r="O40" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L41" s="24"/>
+      <c r="M41" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N41" s="31"/>
+      <c r="O41" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J42" s="24"/>
+      <c r="K42" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L42" s="24"/>
+      <c r="M42" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N42" s="31"/>
+      <c r="O42" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H43" s="27"/>
+      <c r="I43" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J43" s="24"/>
+      <c r="K43" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L43" s="24"/>
+      <c r="M43" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N43" s="31"/>
+      <c r="O43" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H44" s="27"/>
+      <c r="I44" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J44" s="24"/>
+      <c r="K44" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L44" s="24"/>
+      <c r="M44" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N44" s="31"/>
+      <c r="O44" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H45" s="27"/>
+      <c r="I45" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L45" s="24"/>
+      <c r="M45" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N45" s="31"/>
+      <c r="O45" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L46" s="24"/>
+      <c r="M46" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N46" s="31"/>
+      <c r="O46" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L47" s="24"/>
+      <c r="M47" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N47" s="31"/>
+      <c r="O47" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J48" s="24"/>
+      <c r="K48" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L48" s="24"/>
+      <c r="M48" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N48" s="31"/>
+      <c r="O48" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H49" s="27"/>
+      <c r="I49" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J49" s="24"/>
+      <c r="K49" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L49" s="24"/>
+      <c r="M49" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N49" s="31"/>
+      <c r="O49" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L50" s="24"/>
+      <c r="M50" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N50" s="31"/>
+      <c r="O50" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H51" s="27"/>
+      <c r="I51" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L51" s="24"/>
+      <c r="M51" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N51" s="31"/>
+      <c r="O51" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H52" s="27"/>
+      <c r="I52" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J52" s="24"/>
+      <c r="K52" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L52" s="24"/>
+      <c r="M52" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N52" s="31"/>
+      <c r="O52" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H53" s="27"/>
+      <c r="I53" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L53" s="24"/>
+      <c r="M53" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N53" s="31"/>
+      <c r="O53" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L54" s="24"/>
+      <c r="M54" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N54" s="31"/>
+      <c r="O54" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H55" s="27"/>
+      <c r="I55" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J55" s="24"/>
+      <c r="K55" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L55" s="24"/>
+      <c r="M55" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N55" s="31"/>
+      <c r="O55" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F56" s="24"/>
+      <c r="G56" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H56" s="27"/>
+      <c r="I56" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J56" s="24"/>
+      <c r="K56" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L56" s="24"/>
+      <c r="M56" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N56" s="31"/>
+      <c r="O56" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="39"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F57" s="25"/>
+      <c r="G57" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H57" s="28"/>
+      <c r="I57" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J57" s="25"/>
+      <c r="K57" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L57" s="25"/>
+      <c r="M57" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N57" s="33"/>
+      <c r="O57" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:15" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="55"/>
+    </row>
+    <row r="60" spans="1:15" s="38" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="10"/>
+    </row>
+    <row r="61" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="D61" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="46"/>
+      <c r="F61" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="46"/>
+      <c r="H61" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="46"/>
+      <c r="J61" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="46"/>
+      <c r="L61" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" s="46"/>
+      <c r="N61" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O61" s="43"/>
+    </row>
+    <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
+      <c r="B62" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O62" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="21" t="str">
+        <f>IF(ISBLANK($B63),"",SUM(D63,F63,H63,J63,L63,N63))</f>
+        <v/>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="12" t="str">
+        <f>IF(ISBLANK($B63),"",D63/$C63)</f>
+        <v/>
+      </c>
+      <c r="F63" s="24"/>
+      <c r="G63" s="12" t="str">
+        <f>IF(ISBLANK($B63),"",F63/$C63)</f>
+        <v/>
+      </c>
+      <c r="H63" s="27"/>
+      <c r="I63" s="12" t="str">
+        <f>IF(ISBLANK($B63),"",H63/$C63)</f>
+        <v/>
+      </c>
+      <c r="J63" s="24"/>
+      <c r="K63" s="12" t="str">
+        <f>IF(ISBLANK($B63),"",J63/$C63)</f>
+        <v/>
+      </c>
+      <c r="L63" s="24"/>
+      <c r="M63" s="12" t="str">
+        <f>IF(ISBLANK($B63),"",L63/$C63)</f>
+        <v/>
+      </c>
+      <c r="N63" s="31"/>
+      <c r="O63" s="32" t="str">
+        <f>IF(ISBLANK($B63),"",N63/$C63)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="21" t="str">
+        <f t="shared" ref="C64:C85" si="14">IF(ISBLANK($B64),"",SUM(D64,F64,H64,J64,L64,N64))</f>
+        <v/>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="12" t="str">
+        <f t="shared" ref="E64:E85" si="15">IF(ISBLANK($B64),"",D64/$C64)</f>
+        <v/>
+      </c>
+      <c r="F64" s="24"/>
+      <c r="G64" s="12" t="str">
+        <f t="shared" ref="G64:G85" si="16">IF(ISBLANK($B64),"",F64/$C64)</f>
+        <v/>
+      </c>
+      <c r="H64" s="27"/>
+      <c r="I64" s="12" t="str">
+        <f t="shared" ref="I64:I85" si="17">IF(ISBLANK($B64),"",H64/$C64)</f>
+        <v/>
+      </c>
+      <c r="J64" s="24"/>
+      <c r="K64" s="12" t="str">
+        <f t="shared" ref="K64:K85" si="18">IF(ISBLANK($B64),"",J64/$C64)</f>
+        <v/>
+      </c>
+      <c r="L64" s="24"/>
+      <c r="M64" s="12" t="str">
+        <f t="shared" ref="M64:M85" si="19">IF(ISBLANK($B64),"",L64/$C64)</f>
+        <v/>
+      </c>
+      <c r="N64" s="31"/>
+      <c r="O64" s="32" t="str">
+        <f t="shared" ref="O64:O85" si="20">IF(ISBLANK($B64),"",N64/$C64)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D65" s="24"/>
+      <c r="E65" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F65" s="24"/>
+      <c r="G65" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H65" s="27"/>
+      <c r="I65" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J65" s="24"/>
+      <c r="K65" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L65" s="24"/>
+      <c r="M65" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N65" s="31"/>
+      <c r="O65" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F66" s="24"/>
+      <c r="G66" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H66" s="27"/>
+      <c r="I66" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J66" s="24"/>
+      <c r="K66" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L66" s="24"/>
+      <c r="M66" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N66" s="31"/>
+      <c r="O66" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F67" s="24"/>
+      <c r="G67" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H67" s="27"/>
+      <c r="I67" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L67" s="24"/>
+      <c r="M67" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N67" s="31"/>
+      <c r="O67" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D68" s="24"/>
+      <c r="E68" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F68" s="24"/>
+      <c r="G68" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H68" s="27"/>
+      <c r="I68" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J68" s="24"/>
+      <c r="K68" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L68" s="24"/>
+      <c r="M68" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N68" s="31"/>
+      <c r="O68" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F69" s="24"/>
+      <c r="G69" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H69" s="27"/>
+      <c r="I69" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J69" s="24"/>
+      <c r="K69" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L69" s="24"/>
+      <c r="M69" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N69" s="31"/>
+      <c r="O69" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F70" s="24"/>
+      <c r="G70" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H70" s="27"/>
+      <c r="I70" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J70" s="24"/>
+      <c r="K70" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L70" s="24"/>
+      <c r="M70" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N70" s="31"/>
+      <c r="O70" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D71" s="24"/>
+      <c r="E71" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F71" s="24"/>
+      <c r="G71" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H71" s="27"/>
+      <c r="I71" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J71" s="24"/>
+      <c r="K71" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L71" s="24"/>
+      <c r="M71" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N71" s="31"/>
+      <c r="O71" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F72" s="24"/>
+      <c r="G72" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H72" s="27"/>
+      <c r="I72" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J72" s="24"/>
+      <c r="K72" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L72" s="24"/>
+      <c r="M72" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N72" s="31"/>
+      <c r="O72" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F73" s="24"/>
+      <c r="G73" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H73" s="27"/>
+      <c r="I73" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J73" s="24"/>
+      <c r="K73" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L73" s="24"/>
+      <c r="M73" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N73" s="31"/>
+      <c r="O73" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F74" s="24"/>
+      <c r="G74" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H74" s="27"/>
+      <c r="I74" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J74" s="24"/>
+      <c r="K74" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L74" s="24"/>
+      <c r="M74" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N74" s="31"/>
+      <c r="O74" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F75" s="24"/>
+      <c r="G75" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H75" s="27"/>
+      <c r="I75" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J75" s="24"/>
+      <c r="K75" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L75" s="24"/>
+      <c r="M75" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N75" s="31"/>
+      <c r="O75" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F76" s="24"/>
+      <c r="G76" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H76" s="27"/>
+      <c r="I76" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J76" s="24"/>
+      <c r="K76" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L76" s="24"/>
+      <c r="M76" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N76" s="31"/>
+      <c r="O76" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="39"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F77" s="24"/>
+      <c r="G77" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H77" s="27"/>
+      <c r="I77" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J77" s="24"/>
+      <c r="K77" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L77" s="24"/>
+      <c r="M77" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N77" s="31"/>
+      <c r="O77" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="39"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F78" s="24"/>
+      <c r="G78" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H78" s="27"/>
+      <c r="I78" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J78" s="24"/>
+      <c r="K78" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L78" s="24"/>
+      <c r="M78" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N78" s="31"/>
+      <c r="O78" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="39"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F79" s="24"/>
+      <c r="G79" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H79" s="27"/>
+      <c r="I79" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J79" s="24"/>
+      <c r="K79" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L79" s="24"/>
+      <c r="M79" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N79" s="31"/>
+      <c r="O79" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="39"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F80" s="24"/>
+      <c r="G80" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H80" s="27"/>
+      <c r="I80" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J80" s="24"/>
+      <c r="K80" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L80" s="24"/>
+      <c r="M80" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N80" s="31"/>
+      <c r="O80" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="39"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F81" s="24"/>
+      <c r="G81" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H81" s="27"/>
+      <c r="I81" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J81" s="24"/>
+      <c r="K81" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L81" s="24"/>
+      <c r="M81" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N81" s="31"/>
+      <c r="O81" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="39"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D82" s="24"/>
+      <c r="E82" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F82" s="24"/>
+      <c r="G82" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H82" s="27"/>
+      <c r="I82" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J82" s="24"/>
+      <c r="K82" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L82" s="24"/>
+      <c r="M82" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N82" s="31"/>
+      <c r="O82" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="39"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D83" s="24"/>
+      <c r="E83" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F83" s="24"/>
+      <c r="G83" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H83" s="27"/>
+      <c r="I83" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J83" s="24"/>
+      <c r="K83" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L83" s="24"/>
+      <c r="M83" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N83" s="31"/>
+      <c r="O83" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="39"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D84" s="24"/>
+      <c r="E84" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F84" s="24"/>
+      <c r="G84" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H84" s="27"/>
+      <c r="I84" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J84" s="24"/>
+      <c r="K84" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L84" s="24"/>
+      <c r="M84" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N84" s="31"/>
+      <c r="O84" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="39"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D85" s="25"/>
+      <c r="E85" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F85" s="25"/>
+      <c r="G85" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H85" s="28"/>
+      <c r="I85" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J85" s="25"/>
+      <c r="K85" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L85" s="25"/>
+      <c r="M85" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N85" s="33"/>
+      <c r="O85" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="38"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="53"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="38"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="50"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="53"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="26"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="41"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A33:M33"/>
+  <mergeCells count="26">
+    <mergeCell ref="A63:A85"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A35:A57"/>
+    <mergeCell ref="A59:O59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A91:M91"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="J5:K5"/>
@@ -2969,7 +5029,13 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A89:M89"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3001,15 +5067,15 @@
       <c r="A2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
@@ -3031,7 +5097,7 @@
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="17"/>
       <c r="C6" s="37" t="str">
         <f>IF(ISBLANK($B6),"",SUM(D6,E6,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3043,7 +5109,7 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="17"/>
       <c r="C7" s="37" t="str">
         <f>IF(ISBLANK($B7),"",SUM(D7,E7,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3055,7 +5121,7 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="17"/>
       <c r="C8" s="37" t="str">
         <f>IF(ISBLANK($B8),"",SUM(D8,E8,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3067,7 +5133,7 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="17"/>
       <c r="C9" s="37" t="str">
         <f>IF(ISBLANK($B9),"",SUM(D9,E9,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3079,7 +5145,7 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="17"/>
       <c r="C10" s="37" t="str">
         <f>IF(ISBLANK($B10),"",SUM(D10,E10,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3091,7 +5157,7 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="17"/>
       <c r="C11" s="37" t="str">
         <f>IF(ISBLANK($B11),"",SUM(D11,E11,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3103,7 +5169,7 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="17"/>
       <c r="C12" s="37" t="str">
         <f>IF(ISBLANK($B12),"",SUM(D12,E12,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3115,7 +5181,7 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="17"/>
       <c r="C13" s="37" t="str">
         <f>IF(ISBLANK($B13),"",SUM(D13,E13,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3127,7 +5193,7 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="17"/>
       <c r="C14" s="37" t="str">
         <f>IF(ISBLANK($B14),"",SUM(D14,E14,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3139,7 +5205,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="17"/>
       <c r="C15" s="37" t="str">
         <f>IF(ISBLANK($B15),"",SUM(D15,E15,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3151,7 +5217,7 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="17"/>
       <c r="C16" s="37" t="str">
         <f>IF(ISBLANK($B16),"",SUM(D16,E16,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3163,7 +5229,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="17"/>
       <c r="C17" s="37" t="str">
         <f>IF(ISBLANK($B17),"",SUM(D17,E17,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3175,7 +5241,7 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="17"/>
       <c r="C18" s="37" t="str">
         <f>IF(ISBLANK($B18),"",SUM(D18,E18,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3187,7 +5253,7 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="17"/>
       <c r="C19" s="37" t="str">
         <f>IF(ISBLANK($B19),"",SUM(D19,E19,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3199,7 +5265,7 @@
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="17"/>
       <c r="C20" s="37" t="str">
         <f>IF(ISBLANK($B20),"",SUM(D20,E20,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3211,7 +5277,7 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="17"/>
       <c r="C21" s="37" t="str">
         <f>IF(ISBLANK($B21),"",SUM(D21,E21,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3223,7 +5289,7 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="17"/>
       <c r="C22" s="37" t="str">
         <f>IF(ISBLANK($B22),"",SUM(D22,E22,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3235,7 +5301,7 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="17"/>
       <c r="C23" s="37" t="str">
         <f>IF(ISBLANK($B23),"",SUM(D23,E23,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3247,7 +5313,7 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="17"/>
       <c r="C24" s="37" t="str">
         <f>IF(ISBLANK($B24),"",SUM(D24,E24,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3259,7 +5325,7 @@
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="17"/>
       <c r="C25" s="37" t="str">
         <f>IF(ISBLANK($B25),"",SUM(D25,E25,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3271,7 +5337,7 @@
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="17"/>
       <c r="C26" s="37" t="str">
         <f>IF(ISBLANK($B26),"",SUM(D26,E26,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3283,7 +5349,7 @@
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="17"/>
       <c r="C27" s="37" t="str">
         <f>IF(ISBLANK($B27),"",SUM(D27,E27,#REF!,#REF!,#REF!,#REF!))</f>
@@ -3304,26 +5370,26 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/te_algorithms/data/summary_table_drought.xlsx
+++ b/te_algorithms/data/summary_table_drought.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LandDegradation\trends.earth-prais-prep\docker\summary_worker\trends.earth-algorithms\te_algorithms\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D73D5EF-B020-43B2-A64B-4A6A758D6C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC52137-FA2A-4D86-851B-1B5F19CFABAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="26655" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7950" yWindow="5070" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area under drought by year" sheetId="11" r:id="rId1"/>
@@ -514,6 +514,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -536,31 +554,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -923,53 +923,53 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="52"/>
+      <c r="J5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="52"/>
+      <c r="L5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="42" t="s">
+      <c r="M5" s="52"/>
+      <c r="N5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="43"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
@@ -1015,8 +1015,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
       <c r="B7" s="17"/>
       <c r="C7" s="21" t="str">
         <f>IF(ISBLANK($B7),"",SUM(D7,F7,H7,J7,L7,N7))</f>
@@ -1053,8 +1053,8 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
       <c r="B8" s="17"/>
       <c r="C8" s="21" t="str">
         <f t="shared" ref="C8:C29" si="0">IF(ISBLANK($B8),"",SUM(D8,F8,H8,J8,L8,N8))</f>
@@ -1091,8 +1091,8 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
       <c r="B9" s="17"/>
       <c r="C9" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1129,8 +1129,8 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
       <c r="B10" s="17"/>
       <c r="C10" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1167,8 +1167,8 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
       <c r="B11" s="17"/>
       <c r="C11" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1205,8 +1205,8 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
       <c r="B12" s="17"/>
       <c r="C12" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1243,8 +1243,8 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
       <c r="B13" s="17"/>
       <c r="C13" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1281,8 +1281,8 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
       <c r="B14" s="17"/>
       <c r="C14" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1319,8 +1319,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
       <c r="B15" s="17"/>
       <c r="C15" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1357,8 +1357,8 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
       <c r="B16" s="17"/>
       <c r="C16" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1395,8 +1395,8 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
       <c r="B17" s="17"/>
       <c r="C17" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1433,8 +1433,8 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
       <c r="B18" s="17"/>
       <c r="C18" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1471,8 +1471,8 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
       <c r="B19" s="17"/>
       <c r="C19" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1509,8 +1509,8 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
       <c r="B20" s="17"/>
       <c r="C20" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1547,8 +1547,8 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1585,8 +1585,8 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
       <c r="B22" s="17"/>
       <c r="C22" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1623,8 +1623,8 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
       <c r="B23" s="17"/>
       <c r="C23" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1661,8 +1661,8 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
       <c r="B24" s="17"/>
       <c r="C24" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1699,8 +1699,8 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
       <c r="B25" s="17"/>
       <c r="C25" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1737,8 +1737,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
       <c r="B26" s="17"/>
       <c r="C26" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1775,8 +1775,8 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
       <c r="B27" s="17"/>
       <c r="C27" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1813,8 +1813,8 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
       <c r="B28" s="17"/>
       <c r="C28" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1851,8 +1851,8 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="45"/>
       <c r="B29" s="17"/>
       <c r="C29" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1900,38 +1900,38 @@
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
     </row>
@@ -1990,23 +1990,23 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -2015,30 +2015,30 @@
       <c r="A5" s="5"/>
       <c r="B5" s="15"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="52"/>
+      <c r="J5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="52"/>
+      <c r="L5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="42" t="s">
+      <c r="M5" s="52"/>
+      <c r="N5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="43"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
@@ -2084,8 +2084,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
       <c r="B7" s="17"/>
       <c r="C7" s="21" t="str">
         <f>IF(ISBLANK($B7),"",SUM(D7,F7,H7,J7,L7,N7))</f>
@@ -2122,8 +2122,8 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
       <c r="B8" s="17"/>
       <c r="C8" s="21" t="str">
         <f t="shared" ref="C8:C29" si="0">IF(ISBLANK($B8),"",SUM(D8,F8,H8,J8,L8,N8))</f>
@@ -2160,8 +2160,8 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
       <c r="B9" s="17"/>
       <c r="C9" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2198,8 +2198,8 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
       <c r="B10" s="17"/>
       <c r="C10" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2236,8 +2236,8 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
       <c r="B11" s="17"/>
       <c r="C11" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2274,8 +2274,8 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
       <c r="B12" s="17"/>
       <c r="C12" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2312,8 +2312,8 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
       <c r="B13" s="17"/>
       <c r="C13" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2350,8 +2350,8 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
       <c r="B14" s="17"/>
       <c r="C14" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2388,8 +2388,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
       <c r="B15" s="17"/>
       <c r="C15" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2426,8 +2426,8 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
       <c r="B16" s="17"/>
       <c r="C16" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2464,8 +2464,8 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
       <c r="B17" s="17"/>
       <c r="C17" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2502,8 +2502,8 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
       <c r="B18" s="17"/>
       <c r="C18" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2540,8 +2540,8 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+    <row r="19" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
       <c r="B19" s="17"/>
       <c r="C19" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2578,8 +2578,8 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
       <c r="B20" s="17"/>
       <c r="C20" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2616,8 +2616,8 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+    <row r="21" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2654,8 +2654,8 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+    <row r="22" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
       <c r="B22" s="17"/>
       <c r="C22" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2692,8 +2692,8 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+    <row r="23" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
       <c r="B23" s="17"/>
       <c r="C23" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2730,8 +2730,8 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+    <row r="24" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
       <c r="B24" s="17"/>
       <c r="C24" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2768,8 +2768,8 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+    <row r="25" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
       <c r="B25" s="17"/>
       <c r="C25" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2806,8 +2806,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+    <row r="26" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
       <c r="B26" s="17"/>
       <c r="C26" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2844,8 +2844,8 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
       <c r="B27" s="17"/>
       <c r="C27" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2882,8 +2882,8 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
       <c r="B28" s="17"/>
       <c r="C28" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2920,8 +2920,8 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="45"/>
       <c r="B29" s="17"/>
       <c r="C29" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2958,27 +2958,27 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:15" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
+    <row r="30" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:15" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-    </row>
-    <row r="32" spans="1:15" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+    </row>
+    <row r="32" spans="1:15" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="15"/>
       <c r="C32" s="19"/>
@@ -2995,34 +2995,34 @@
       <c r="N32" s="19"/>
       <c r="O32" s="10"/>
     </row>
-    <row r="33" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="15"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="45" t="s">
+      <c r="E33" s="52"/>
+      <c r="F33" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="45" t="s">
+      <c r="G33" s="52"/>
+      <c r="H33" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="46"/>
-      <c r="J33" s="45" t="s">
+      <c r="I33" s="52"/>
+      <c r="J33" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K33" s="46"/>
-      <c r="L33" s="45" t="s">
+      <c r="K33" s="52"/>
+      <c r="L33" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="46"/>
-      <c r="N33" s="42" t="s">
+      <c r="M33" s="52"/>
+      <c r="N33" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="43"/>
+      <c r="O33" s="49"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
@@ -3070,7 +3070,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="17"/>
       <c r="C35" s="21" t="str">
         <f>IF(ISBLANK($B35),"",SUM(D35,F35,H35,J35,L35,N35))</f>
@@ -3108,7 +3108,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="17"/>
       <c r="C36" s="21" t="str">
         <f t="shared" ref="C36:C57" si="7">IF(ISBLANK($B36),"",SUM(D36,F36,H36,J36,L36,N36))</f>
@@ -3146,7 +3146,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="17"/>
       <c r="C37" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3184,7 +3184,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="17"/>
       <c r="C38" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3222,7 +3222,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="17"/>
       <c r="C39" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3260,7 +3260,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="17"/>
       <c r="C40" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="17"/>
       <c r="C41" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3336,7 +3336,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="17"/>
       <c r="C42" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3374,7 +3374,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="17"/>
       <c r="C43" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3412,7 +3412,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="17"/>
       <c r="C44" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3450,7 +3450,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="17"/>
       <c r="C45" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3488,7 +3488,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="17"/>
       <c r="C46" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3526,7 +3526,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="17"/>
       <c r="C47" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3564,7 +3564,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="17"/>
       <c r="C48" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3602,7 +3602,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="17"/>
       <c r="C49" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3640,7 +3640,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="17"/>
       <c r="C50" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3678,7 +3678,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="17"/>
       <c r="C51" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3716,7 +3716,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="17"/>
       <c r="C52" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3754,7 +3754,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="17"/>
       <c r="C53" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3792,7 +3792,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="17"/>
       <c r="C54" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3830,7 +3830,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="17"/>
       <c r="C55" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3868,7 +3868,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="17"/>
       <c r="C56" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3906,7 +3906,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="17"/>
       <c r="C57" s="21" t="str">
         <f t="shared" si="7"/>
@@ -3945,23 +3945,23 @@
     </row>
     <row r="58" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:15" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="55"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
     </row>
     <row r="60" spans="1:15" s="38" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
@@ -3982,30 +3982,30 @@
     </row>
     <row r="61" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
-      <c r="D61" s="45" t="s">
+      <c r="D61" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="46"/>
-      <c r="F61" s="45" t="s">
+      <c r="E61" s="52"/>
+      <c r="F61" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="46"/>
-      <c r="H61" s="45" t="s">
+      <c r="G61" s="52"/>
+      <c r="H61" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="I61" s="46"/>
-      <c r="J61" s="45" t="s">
+      <c r="I61" s="52"/>
+      <c r="J61" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K61" s="46"/>
-      <c r="L61" s="45" t="s">
+      <c r="K61" s="52"/>
+      <c r="L61" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M61" s="46"/>
-      <c r="N61" s="42" t="s">
+      <c r="M61" s="52"/>
+      <c r="N61" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O61" s="43"/>
+      <c r="O61" s="49"/>
     </row>
     <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
@@ -4053,7 +4053,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="17"/>
       <c r="C63" s="21" t="str">
         <f>IF(ISBLANK($B63),"",SUM(D63,F63,H63,J63,L63,N63))</f>
@@ -4091,7 +4091,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="17"/>
       <c r="C64" s="21" t="str">
         <f t="shared" ref="C64:C85" si="14">IF(ISBLANK($B64),"",SUM(D64,F64,H64,J64,L64,N64))</f>
@@ -4129,7 +4129,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="17"/>
       <c r="C65" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4167,7 +4167,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="17"/>
       <c r="C66" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4205,7 +4205,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="17"/>
       <c r="C67" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4243,7 +4243,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="17"/>
       <c r="C68" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4281,7 +4281,7 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="17"/>
       <c r="C69" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4319,7 +4319,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="17"/>
       <c r="C70" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4357,7 +4357,7 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="17"/>
       <c r="C71" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4395,7 +4395,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="17"/>
       <c r="C72" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4433,7 +4433,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="17"/>
       <c r="C73" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4471,7 +4471,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+      <c r="A74" s="45"/>
       <c r="B74" s="17"/>
       <c r="C74" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4509,7 +4509,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+      <c r="A75" s="45"/>
       <c r="B75" s="17"/>
       <c r="C75" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4547,7 +4547,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="17"/>
       <c r="C76" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4585,7 +4585,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="17"/>
       <c r="C77" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4623,7 +4623,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="17"/>
       <c r="C78" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4661,7 +4661,7 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="17"/>
       <c r="C79" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4699,7 +4699,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="17"/>
       <c r="C80" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4737,7 +4737,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
+      <c r="A81" s="45"/>
       <c r="B81" s="17"/>
       <c r="C81" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4775,7 +4775,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
+      <c r="A82" s="45"/>
       <c r="B82" s="17"/>
       <c r="C82" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4813,7 +4813,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
+      <c r="A83" s="45"/>
       <c r="B83" s="17"/>
       <c r="C83" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4851,7 +4851,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="17"/>
       <c r="C84" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4889,7 +4889,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
+      <c r="A85" s="45"/>
       <c r="B85" s="17"/>
       <c r="C85" s="21" t="str">
         <f t="shared" si="14"/>
@@ -4928,37 +4928,37 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="53"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="44"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
-      <c r="B87" s="48"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="50"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="50"/>
-      <c r="N87" s="52"/>
-      <c r="O87" s="53"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="44"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
@@ -4971,55 +4971,45 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="40"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-      <c r="M91" s="41"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="47"/>
       <c r="N91" s="38"/>
       <c r="O91" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A63:A85"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="A35:A57"/>
-    <mergeCell ref="A59:O59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
     <mergeCell ref="A91:M91"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="A3:O3"/>
@@ -5036,6 +5026,16 @@
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A63:A85"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A35:A57"/>
+    <mergeCell ref="A59:O59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5046,7 +5046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12253E63-19A0-4D98-92C0-18466B6DE8AE}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5067,15 +5069,15 @@
       <c r="A2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
@@ -5096,8 +5098,8 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
       <c r="B6" s="17"/>
       <c r="C6" s="37" t="str">
         <f>IF(ISBLANK($B6),"",SUM(D6,E6,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5108,8 +5110,8 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
       <c r="B7" s="17"/>
       <c r="C7" s="37" t="str">
         <f>IF(ISBLANK($B7),"",SUM(D7,E7,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5120,8 +5122,8 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
       <c r="B8" s="17"/>
       <c r="C8" s="37" t="str">
         <f>IF(ISBLANK($B8),"",SUM(D8,E8,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5132,8 +5134,8 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
       <c r="B9" s="17"/>
       <c r="C9" s="37" t="str">
         <f>IF(ISBLANK($B9),"",SUM(D9,E9,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5144,8 +5146,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
       <c r="B10" s="17"/>
       <c r="C10" s="37" t="str">
         <f>IF(ISBLANK($B10),"",SUM(D10,E10,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5156,8 +5158,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
       <c r="B11" s="17"/>
       <c r="C11" s="37" t="str">
         <f>IF(ISBLANK($B11),"",SUM(D11,E11,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5168,8 +5170,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
       <c r="B12" s="17"/>
       <c r="C12" s="37" t="str">
         <f>IF(ISBLANK($B12),"",SUM(D12,E12,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5180,8 +5182,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
       <c r="B13" s="17"/>
       <c r="C13" s="37" t="str">
         <f>IF(ISBLANK($B13),"",SUM(D13,E13,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5192,8 +5194,8 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
       <c r="B14" s="17"/>
       <c r="C14" s="37" t="str">
         <f>IF(ISBLANK($B14),"",SUM(D14,E14,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5204,8 +5206,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
       <c r="B15" s="17"/>
       <c r="C15" s="37" t="str">
         <f>IF(ISBLANK($B15),"",SUM(D15,E15,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5216,8 +5218,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
       <c r="B16" s="17"/>
       <c r="C16" s="37" t="str">
         <f>IF(ISBLANK($B16),"",SUM(D16,E16,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5228,8 +5230,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
       <c r="B17" s="17"/>
       <c r="C17" s="37" t="str">
         <f>IF(ISBLANK($B17),"",SUM(D17,E17,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5240,8 +5242,8 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
       <c r="B18" s="17"/>
       <c r="C18" s="37" t="str">
         <f>IF(ISBLANK($B18),"",SUM(D18,E18,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5252,8 +5254,8 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
       <c r="B19" s="17"/>
       <c r="C19" s="37" t="str">
         <f>IF(ISBLANK($B19),"",SUM(D19,E19,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5264,8 +5266,8 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
       <c r="B20" s="17"/>
       <c r="C20" s="37" t="str">
         <f>IF(ISBLANK($B20),"",SUM(D20,E20,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5276,8 +5278,8 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
       <c r="B21" s="17"/>
       <c r="C21" s="37" t="str">
         <f>IF(ISBLANK($B21),"",SUM(D21,E21,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5288,8 +5290,8 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
       <c r="B22" s="17"/>
       <c r="C22" s="37" t="str">
         <f>IF(ISBLANK($B22),"",SUM(D22,E22,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5300,8 +5302,8 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
       <c r="B23" s="17"/>
       <c r="C23" s="37" t="str">
         <f>IF(ISBLANK($B23),"",SUM(D23,E23,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5312,8 +5314,8 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
       <c r="B24" s="17"/>
       <c r="C24" s="37" t="str">
         <f>IF(ISBLANK($B24),"",SUM(D24,E24,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5324,8 +5326,8 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
       <c r="B25" s="17"/>
       <c r="C25" s="37" t="str">
         <f>IF(ISBLANK($B25),"",SUM(D25,E25,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5336,8 +5338,8 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
       <c r="B26" s="17"/>
       <c r="C26" s="37" t="str">
         <f>IF(ISBLANK($B26),"",SUM(D26,E26,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5348,8 +5350,8 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
       <c r="B27" s="17"/>
       <c r="C27" s="37" t="str">
         <f>IF(ISBLANK($B27),"",SUM(D27,E27,#REF!,#REF!,#REF!,#REF!))</f>
@@ -5360,7 +5362,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="18"/>
       <c r="C28" s="22"/>
@@ -5370,26 +5372,26 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
